--- a/key_results/summary.xlsx
+++ b/key_results/summary.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirpr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB6F085-EA43-470D-82A1-8C0B14CAE3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B9428-2F3C-40B2-8B09-3E5C466F9286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12072" xr2:uid="{FED58553-126B-4529-BF54-3FEF5449D410}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FED58553-126B-4529-BF54-3FEF5449D410}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>SC</t>
   </si>
@@ -32,6 +43,30 @@
   </si>
   <si>
     <t>DiffILO+Gurobi</t>
+  </si>
+  <si>
+    <t>Gurobi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC (Baseline)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA (Baseline01)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA (Baseline)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS (Baseline)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次训练时，这组数据在55s时才出现第一次log，但再次运行这组数据并无异常，可能是服务器卡了，又重新测了一遍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -199,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +412,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -639,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,6 +692,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -721,9 +774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>593090</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>84305</xdr:rowOff>
+      <xdr:rowOff>98275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1056,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FAC54D-70B7-4722-92C3-077889A2B711}">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1067,97 +1120,153 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="X1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>100</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <v>1000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>100</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <v>1000</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <v>10</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <v>100</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>100</v>
+      </c>
+      <c r="AI2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1324,74 @@
       <c r="T3" s="2">
         <v>21706.091120000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X3" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>689</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>692</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>692</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>21779.999500000002</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>21873.448045000001</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>21873.448045000001</v>
+      </c>
+      <c r="AG3">
+        <v>21779.999500000002</v>
+      </c>
+      <c r="AH3">
+        <v>21873.448045000001</v>
+      </c>
+      <c r="AI3">
+        <v>21873.448045000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>96.19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>86.47</v>
+      </c>
+      <c r="E4" s="2">
+        <v>682.24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>684.13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>684.13</v>
+      </c>
+      <c r="H4" s="2">
+        <v>22167.836623200001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>22256.784876959999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>22272.546688179998</v>
+      </c>
       <c r="L4" s="2">
         <v>74</v>
       </c>
@@ -1244,8 +1419,44 @@
       <c r="T4" s="2">
         <v>22110.999739999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>696</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>696</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>696</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>22893.845411999999</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>22957.844112999999</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>22974.0998</v>
+      </c>
+      <c r="AG4">
+        <v>22893.845411999999</v>
+      </c>
+      <c r="AH4">
+        <v>22957.844112999999</v>
+      </c>
+      <c r="AI4">
+        <v>22974.0998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L5" s="2">
         <v>72</v>
       </c>
@@ -1273,8 +1484,44 @@
       <c r="T5" s="2">
         <v>22936.116600000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>674</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>677</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>677</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>21878.602984000001</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>21974.804899999999</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>21974.804899999999</v>
+      </c>
+      <c r="AG5">
+        <v>21878.602984000001</v>
+      </c>
+      <c r="AH5">
+        <v>21974.804899999999</v>
+      </c>
+      <c r="AI5">
+        <v>21974.804899999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L6" s="2">
         <v>108</v>
       </c>
@@ -1302,8 +1549,44 @@
       <c r="T6" s="2">
         <v>22533.530900000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X6" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>671</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>674</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>674</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>23096.2006</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>23217.448133000002</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>23275.358423999998</v>
+      </c>
+      <c r="AG6">
+        <v>23096.2006</v>
+      </c>
+      <c r="AH6">
+        <v>23217.448133000002</v>
+      </c>
+      <c r="AI6">
+        <v>23275.358423999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L7" s="2">
         <v>86</v>
       </c>
@@ -1331,8 +1614,44 @@
       <c r="T7" s="2">
         <v>22571.275799999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X7" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>685</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>686</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>686</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>22202.358100000001</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>22227.353599999999</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>22227.353599999999</v>
+      </c>
+      <c r="AG7">
+        <v>22202.358100000001</v>
+      </c>
+      <c r="AH7">
+        <v>22227.353599999999</v>
+      </c>
+      <c r="AI7">
+        <v>22227.353599999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L8" s="2">
         <v>82</v>
       </c>
@@ -1360,8 +1679,44 @@
       <c r="T8" s="2">
         <v>23298.205020000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>93</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>692</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>692</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>692</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>21598.743527999999</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>21670.269432000001</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>21714.637449000002</v>
+      </c>
+      <c r="AG8">
+        <v>21598.743527999999</v>
+      </c>
+      <c r="AH8">
+        <v>21670.269432000001</v>
+      </c>
+      <c r="AI8">
+        <v>21714.637449000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L9" s="2">
         <v>93</v>
       </c>
@@ -1389,8 +1744,44 @@
       <c r="T9" s="2">
         <v>21886.384409999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X9" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>102</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>673</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>675</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>675</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>22742.475634999999</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>22751.233014000001</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>22821.559423999999</v>
+      </c>
+      <c r="AG9">
+        <v>22742.475634999999</v>
+      </c>
+      <c r="AH9">
+        <v>22751.233014000001</v>
+      </c>
+      <c r="AI9">
+        <v>22821.559423999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L10" s="2">
         <v>90</v>
       </c>
@@ -1418,8 +1809,44 @@
       <c r="T10" s="2">
         <v>22475.434929999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>686</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>686</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>22018.554726999999</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>22033.07374</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>22110.4506</v>
+      </c>
+      <c r="AG10">
+        <v>22018.554726999999</v>
+      </c>
+      <c r="AH10">
+        <v>22033.07374</v>
+      </c>
+      <c r="AI10">
+        <v>22110.4506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L11" s="2">
         <v>84</v>
       </c>
@@ -1447,8 +1874,44 @@
       <c r="T11" s="2">
         <v>21884.377499999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>681</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>683</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>22189.741416000001</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>22276.627245</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>22404.606736000002</v>
+      </c>
+      <c r="AG11">
+        <v>22189.741416000001</v>
+      </c>
+      <c r="AH11">
+        <v>22276.627245</v>
+      </c>
+      <c r="AI11">
+        <v>22404.606736000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L12" s="2">
         <v>92</v>
       </c>
@@ -1476,8 +1939,44 @@
       <c r="T12" s="2">
         <v>21603.621719999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>689</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>689</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>689</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>21312.072806</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>21432.709599999998</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>21432.709599999998</v>
+      </c>
+      <c r="AG12">
+        <v>21312.072806</v>
+      </c>
+      <c r="AH12">
+        <v>21432.709599999998</v>
+      </c>
+      <c r="AI12">
+        <v>21432.709599999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L13" s="2">
         <v>125</v>
       </c>
@@ -1505,8 +2004,44 @@
       <c r="T13" s="2">
         <v>21441.819319999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X13" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>678</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>679</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>679</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>22326.050743</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>22539.1217</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>22571.275799999999</v>
+      </c>
+      <c r="AG13">
+        <v>22326.050743</v>
+      </c>
+      <c r="AH13">
+        <v>22539.1217</v>
+      </c>
+      <c r="AI13">
+        <v>22571.275799999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L14" s="2">
         <v>97</v>
       </c>
@@ -1534,8 +2069,44 @@
       <c r="T14" s="2">
         <v>22202.403999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>687</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>689</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>689</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>22056.493600000002</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>22078.196229000001</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>22110.999737999999</v>
+      </c>
+      <c r="AG14">
+        <v>22056.493600000002</v>
+      </c>
+      <c r="AH14">
+        <v>22078.196229000001</v>
+      </c>
+      <c r="AI14">
+        <v>22110.999737999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L15" s="2">
         <v>84</v>
       </c>
@@ -1563,8 +2134,44 @@
       <c r="T15" s="2">
         <v>22452.816500000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X15" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>685</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>686</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>686</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>21341.403837999998</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>21441.819323</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>21441.819323</v>
+      </c>
+      <c r="AG15">
+        <v>21341.403837999998</v>
+      </c>
+      <c r="AH15">
+        <v>21441.819323</v>
+      </c>
+      <c r="AI15">
+        <v>21441.819323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L16" s="2">
         <v>100</v>
       </c>
@@ -1592,8 +2199,44 @@
       <c r="T16" s="2">
         <v>21588.621029999998</v>
       </c>
-    </row>
-    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <v>97</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>676</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>679</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>679</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>21802.132126</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>22009.952600000001</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>22084.781121</v>
+      </c>
+      <c r="AG16">
+        <v>21802.132126</v>
+      </c>
+      <c r="AH16">
+        <v>22009.952600000001</v>
+      </c>
+      <c r="AI16">
+        <v>22084.781121</v>
+      </c>
+    </row>
+    <row r="17" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L17" s="2">
         <v>102</v>
       </c>
@@ -1621,8 +2264,44 @@
       <c r="T17" s="2">
         <v>22085.018599999999</v>
       </c>
-    </row>
-    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>680</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>680</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>680</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>22377.580614999999</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>22475.434925000001</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>22475.434925000001</v>
+      </c>
+      <c r="AG17">
+        <v>22377.580614999999</v>
+      </c>
+      <c r="AH17">
+        <v>22475.434925000001</v>
+      </c>
+      <c r="AI17">
+        <v>22475.434925000001</v>
+      </c>
+    </row>
+    <row r="18" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L18" s="2">
         <v>91</v>
       </c>
@@ -1650,8 +2329,44 @@
       <c r="T18" s="2">
         <v>22201.960940000001</v>
       </c>
-    </row>
-    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X18" s="2">
+        <v>96</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>674</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>22717.775033000002</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>22768.458922000002</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>22768.458922000002</v>
+      </c>
+      <c r="AG18">
+        <v>22717.775033000002</v>
+      </c>
+      <c r="AH18">
+        <v>22768.458922000002</v>
+      </c>
+      <c r="AI18">
+        <v>22768.458922000002</v>
+      </c>
+    </row>
+    <row r="19" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L19" s="2">
         <v>85</v>
       </c>
@@ -1679,8 +2394,44 @@
       <c r="T19" s="2">
         <v>21675.231899999999</v>
       </c>
-    </row>
-    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>96</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>692</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>692</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>692</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>22467.317214999999</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>22616.219499999999</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>22616.219499999999</v>
+      </c>
+      <c r="AG19">
+        <v>22467.317214999999</v>
+      </c>
+      <c r="AH19">
+        <v>22616.219499999999</v>
+      </c>
+      <c r="AI19">
+        <v>22616.219499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L20" s="2">
         <v>72</v>
       </c>
@@ -1708,8 +2459,44 @@
       <c r="T20" s="2">
         <v>22456.980520000001</v>
       </c>
-    </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>682</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>682</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>22682.765136999999</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>22850.381440000001</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>22850.381440000001</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH20">
+        <v>22850.381440000001</v>
+      </c>
+      <c r="AI20">
+        <v>22850.381440000001</v>
+      </c>
+    </row>
+    <row r="21" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L21" s="2">
         <v>92</v>
       </c>
@@ -1737,8 +2524,44 @@
       <c r="T21" s="2">
         <v>22404.606739999999</v>
       </c>
-    </row>
-    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>68</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>691</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>691</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>691</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>21954.44601</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>22057.725200000001</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>22074.481962999998</v>
+      </c>
+      <c r="AG21">
+        <v>21954.44601</v>
+      </c>
+      <c r="AH21">
+        <v>22057.725200000001</v>
+      </c>
+      <c r="AI21">
+        <v>22074.481962999998</v>
+      </c>
+    </row>
+    <row r="22" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L22" s="2">
         <v>90</v>
       </c>
@@ -1766,8 +2589,44 @@
       <c r="T22" s="2">
         <v>23365.557809999998</v>
       </c>
-    </row>
-    <row r="23" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X22" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>677</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>679</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>679</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>22734.788100000002</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>22870.635533000001</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>22870.635533000001</v>
+      </c>
+      <c r="AG22">
+        <v>22734.788100000002</v>
+      </c>
+      <c r="AH22">
+        <v>22870.635533000001</v>
+      </c>
+      <c r="AI22">
+        <v>22870.635533000001</v>
+      </c>
+    </row>
+    <row r="23" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L23" s="2">
         <v>106</v>
       </c>
@@ -1795,8 +2654,44 @@
       <c r="T23" s="2">
         <v>21363.037199999999</v>
       </c>
-    </row>
-    <row r="24" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X23" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>683</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>685</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>685</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>22469.256068999999</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>22542.176602</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>22542.176602</v>
+      </c>
+      <c r="AG23">
+        <v>22469.256068999999</v>
+      </c>
+      <c r="AH23">
+        <v>22542.176602</v>
+      </c>
+      <c r="AI23">
+        <v>22542.176602</v>
+      </c>
+    </row>
+    <row r="24" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L24" s="2">
         <v>85</v>
       </c>
@@ -1824,8 +2719,44 @@
       <c r="T24" s="2">
         <v>22907.852900000002</v>
       </c>
-    </row>
-    <row r="25" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X24" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>96</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>686</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>688</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>688</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>21922.490725</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>22085.018599999999</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>22085.018599999999</v>
+      </c>
+      <c r="AG24">
+        <v>21922.490725</v>
+      </c>
+      <c r="AH24">
+        <v>22085.018599999999</v>
+      </c>
+      <c r="AI24">
+        <v>22085.018599999999</v>
+      </c>
+    </row>
+    <row r="25" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L25" s="2">
         <v>86</v>
       </c>
@@ -1853,8 +2784,44 @@
       <c r="T25" s="2">
         <v>22847.58914</v>
       </c>
-    </row>
-    <row r="26" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X25" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>88</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>691</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>691</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>691</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>21806.575799999999</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>21831.86361</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>21831.86361</v>
+      </c>
+      <c r="AG25">
+        <v>21806.575799999999</v>
+      </c>
+      <c r="AH25">
+        <v>21831.86361</v>
+      </c>
+      <c r="AI25">
+        <v>21831.86361</v>
+      </c>
+    </row>
+    <row r="26" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L26" s="2">
         <v>99</v>
       </c>
@@ -1882,8 +2849,44 @@
       <c r="T26" s="2">
         <v>22856.396100000002</v>
       </c>
-    </row>
-    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X26" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>93</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>91</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>688</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>688</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>21897.921242</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>21982.470839000001</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>22019.5501</v>
+      </c>
+      <c r="AG26">
+        <v>21897.921242</v>
+      </c>
+      <c r="AH26">
+        <v>21982.470839000001</v>
+      </c>
+      <c r="AI26">
+        <v>22019.5501</v>
+      </c>
+    </row>
+    <row r="27" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L27" s="2">
         <v>106</v>
       </c>
@@ -1911,8 +2914,44 @@
       <c r="T27" s="2">
         <v>22068.448899999999</v>
       </c>
-    </row>
-    <row r="28" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X27" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>676</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>21169.947899999999</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>21361.3272</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>21361.3272</v>
+      </c>
+      <c r="AG27">
+        <v>21169.947899999999</v>
+      </c>
+      <c r="AH27">
+        <v>21361.3272</v>
+      </c>
+      <c r="AI27">
+        <v>21361.3272</v>
+      </c>
+    </row>
+    <row r="28" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L28" s="2">
         <v>79</v>
       </c>
@@ -1940,8 +2979,44 @@
       <c r="T28" s="2">
         <v>22264.60211</v>
       </c>
-    </row>
-    <row r="29" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X28" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>679</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>22585.5569</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>22615.486722000001</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>22615.486722000001</v>
+      </c>
+      <c r="AG28">
+        <v>22585.5569</v>
+      </c>
+      <c r="AH28">
+        <v>22615.486722000001</v>
+      </c>
+      <c r="AI28">
+        <v>22615.486722000001</v>
+      </c>
+    </row>
+    <row r="29" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L29" s="2">
         <v>94</v>
       </c>
@@ -1969,8 +3044,44 @@
       <c r="T29" s="2">
         <v>22930.885439999998</v>
       </c>
-    </row>
-    <row r="30" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X29" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>680</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>22260.134934999998</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>22444.769549000001</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>22444.769549000001</v>
+      </c>
+      <c r="AG29">
+        <v>22260.134934999998</v>
+      </c>
+      <c r="AH29">
+        <v>22444.769549000001</v>
+      </c>
+      <c r="AI29">
+        <v>22444.769549000001</v>
+      </c>
+    </row>
+    <row r="30" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L30" s="2">
         <v>94</v>
       </c>
@@ -1998,8 +3109,44 @@
       <c r="T30" s="2">
         <v>22697.5481</v>
       </c>
-    </row>
-    <row r="31" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X30" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>678</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>682</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>682</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>22225.421399999999</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>22417.0785</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>22417.0785</v>
+      </c>
+      <c r="AG30">
+        <v>22225.421399999999</v>
+      </c>
+      <c r="AH30">
+        <v>22417.0785</v>
+      </c>
+      <c r="AI30">
+        <v>22417.0785</v>
+      </c>
+    </row>
+    <row r="31" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L31" s="2">
         <v>85</v>
       </c>
@@ -2027,8 +3174,44 @@
       <c r="T31" s="2">
         <v>22233.758839999999</v>
       </c>
-    </row>
-    <row r="32" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X31" s="2">
+        <v>96</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>91</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>91</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>658</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>665</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>665</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>21386.422600000002</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>21559.536510999998</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>21603.621721</v>
+      </c>
+      <c r="AG31">
+        <v>21386.422600000002</v>
+      </c>
+      <c r="AH31">
+        <v>21559.536510999998</v>
+      </c>
+      <c r="AI31">
+        <v>21603.621721</v>
+      </c>
+    </row>
+    <row r="32" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L32" s="2">
         <v>92</v>
       </c>
@@ -2056,8 +3239,44 @@
       <c r="T32" s="2">
         <v>23006.401000000002</v>
       </c>
-    </row>
-    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X32" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>691</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>691</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>691</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>21286.270106</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>21286.270106</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>21286.270106</v>
+      </c>
+      <c r="AG32">
+        <v>21286.270106</v>
+      </c>
+      <c r="AH32">
+        <v>21286.270106</v>
+      </c>
+      <c r="AI32">
+        <v>21286.270106</v>
+      </c>
+    </row>
+    <row r="33" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L33" s="2">
         <v>92</v>
       </c>
@@ -2085,8 +3304,44 @@
       <c r="T33" s="2">
         <v>22701.9653</v>
       </c>
-    </row>
-    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X33" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>681</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>684</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>684</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>23365.557808000001</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>23365.557808000001</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>23365.557808000001</v>
+      </c>
+      <c r="AG33">
+        <v>23365.557808000001</v>
+      </c>
+      <c r="AH33">
+        <v>23365.557808000001</v>
+      </c>
+      <c r="AI33">
+        <v>23365.557808000001</v>
+      </c>
+    </row>
+    <row r="34" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L34" s="2">
         <v>100</v>
       </c>
@@ -2114,8 +3369,44 @@
       <c r="T34" s="2">
         <v>23484.729429999999</v>
       </c>
-    </row>
-    <row r="35" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X34" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>95</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>681</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>682</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>682</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>22455.116945000002</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>22469.681816</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>22469.681816</v>
+      </c>
+      <c r="AG34">
+        <v>22455.116945000002</v>
+      </c>
+      <c r="AH34">
+        <v>22469.681816</v>
+      </c>
+      <c r="AI34">
+        <v>22469.681816</v>
+      </c>
+    </row>
+    <row r="35" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L35" s="2">
         <v>100</v>
       </c>
@@ -2143,8 +3434,44 @@
       <c r="T35" s="2">
         <v>21627.30773</v>
       </c>
-    </row>
-    <row r="36" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X35" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>668</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>670</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>670</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>21832.510699999999</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>22036.391299999999</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>22055.5013</v>
+      </c>
+      <c r="AG35">
+        <v>21832.510699999999</v>
+      </c>
+      <c r="AH35">
+        <v>22036.391299999999</v>
+      </c>
+      <c r="AI35">
+        <v>22055.5013</v>
+      </c>
+    </row>
+    <row r="36" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L36" s="2">
         <v>81</v>
       </c>
@@ -2172,8 +3499,44 @@
       <c r="T36" s="2">
         <v>21974.804899999999</v>
       </c>
-    </row>
-    <row r="37" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X36" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>666</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>671</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>671</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>21306.126816</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>21362.847903999998</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>21362.847903999998</v>
+      </c>
+      <c r="AG36">
+        <v>21306.126816</v>
+      </c>
+      <c r="AH36">
+        <v>21362.847903999998</v>
+      </c>
+      <c r="AI36">
+        <v>21362.847903999998</v>
+      </c>
+    </row>
+    <row r="37" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L37" s="2">
         <v>78</v>
       </c>
@@ -2201,8 +3564,44 @@
       <c r="T37" s="2">
         <v>22480.664700000001</v>
       </c>
-    </row>
-    <row r="38" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X37" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>664</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>669</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>669</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>21616.995092000001</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>21757.136200000001</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>21814.523000000001</v>
+      </c>
+      <c r="AG37">
+        <v>21616.995092000001</v>
+      </c>
+      <c r="AH37">
+        <v>21757.136200000001</v>
+      </c>
+      <c r="AI37">
+        <v>21814.523000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L38" s="2">
         <v>75</v>
       </c>
@@ -2230,8 +3629,44 @@
       <c r="T38" s="2">
         <v>21361.3272</v>
       </c>
-    </row>
-    <row r="39" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X38" s="2">
+        <v>86</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>683</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>684</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>684</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>21808.096247000001</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>21884.377499999999</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>21884.377499999999</v>
+      </c>
+      <c r="AG38">
+        <v>21808.096247000001</v>
+      </c>
+      <c r="AH38">
+        <v>21884.377499999999</v>
+      </c>
+      <c r="AI38">
+        <v>21884.377499999999</v>
+      </c>
+    </row>
+    <row r="39" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L39" s="2">
         <v>101</v>
       </c>
@@ -2259,8 +3694,44 @@
       <c r="T39" s="2">
         <v>22469.681820000002</v>
       </c>
-    </row>
-    <row r="40" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X39" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>674</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>677</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>677</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>22871.123224999999</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>22871.123224999999</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>22891.947975999999</v>
+      </c>
+      <c r="AG39">
+        <v>22871.123224999999</v>
+      </c>
+      <c r="AH39">
+        <v>22871.123224999999</v>
+      </c>
+      <c r="AI39">
+        <v>22891.947975999999</v>
+      </c>
+    </row>
+    <row r="40" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L40" s="2">
         <v>90</v>
       </c>
@@ -2288,8 +3759,44 @@
       <c r="T40" s="2">
         <v>23275.35842</v>
       </c>
-    </row>
-    <row r="41" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X40" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>688</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>689</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>689</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>21921.288646000001</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>22093.497923999999</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>22233.758837000001</v>
+      </c>
+      <c r="AG40">
+        <v>21921.288646000001</v>
+      </c>
+      <c r="AH40">
+        <v>22093.497923999999</v>
+      </c>
+      <c r="AI40">
+        <v>22233.758837000001</v>
+      </c>
+    </row>
+    <row r="41" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L41" s="2">
         <v>86</v>
       </c>
@@ -2317,8 +3824,44 @@
       <c r="T41" s="2">
         <v>21940.993999999999</v>
       </c>
-    </row>
-    <row r="42" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X41" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>685</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>685</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>23008.016</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>23008.016</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>23008.016</v>
+      </c>
+      <c r="AG41">
+        <v>23008.016</v>
+      </c>
+      <c r="AH41">
+        <v>23008.016</v>
+      </c>
+      <c r="AI41">
+        <v>23008.016</v>
+      </c>
+    </row>
+    <row r="42" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L42" s="2">
         <v>117</v>
       </c>
@@ -2346,8 +3889,44 @@
       <c r="T42" s="2">
         <v>21439.349099999999</v>
       </c>
-    </row>
-    <row r="43" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X42" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>88</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>674</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>678</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>678</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>21711.409100000001</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>21711.409100000001</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>21711.409100000001</v>
+      </c>
+      <c r="AG42">
+        <v>21711.409100000001</v>
+      </c>
+      <c r="AH42">
+        <v>21711.409100000001</v>
+      </c>
+      <c r="AI42">
+        <v>21711.409100000001</v>
+      </c>
+    </row>
+    <row r="43" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L43" s="2">
         <v>106</v>
       </c>
@@ -2375,8 +3954,44 @@
       <c r="T43" s="2">
         <v>21362.847900000001</v>
       </c>
-    </row>
-    <row r="44" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X43" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>676</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>22677.249340999999</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>22677.249340999999</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>22677.249340999999</v>
+      </c>
+      <c r="AG43">
+        <v>22677.249340999999</v>
+      </c>
+      <c r="AH43">
+        <v>22677.249340999999</v>
+      </c>
+      <c r="AI43">
+        <v>22677.249340999999</v>
+      </c>
+    </row>
+    <row r="44" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L44" s="2">
         <v>84</v>
       </c>
@@ -2404,8 +4019,44 @@
       <c r="T44" s="2">
         <v>22254.320800000001</v>
       </c>
-    </row>
-    <row r="45" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X44" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>689</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>689</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>689</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>21270.8325</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>21439.349099999999</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>21439.349099999999</v>
+      </c>
+      <c r="AG44">
+        <v>21270.8325</v>
+      </c>
+      <c r="AH44">
+        <v>21439.349099999999</v>
+      </c>
+      <c r="AI44">
+        <v>21439.349099999999</v>
+      </c>
+    </row>
+    <row r="45" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L45" s="2">
         <v>115</v>
       </c>
@@ -2433,8 +4084,44 @@
       <c r="T45" s="2">
         <v>22227.353599999999</v>
       </c>
-    </row>
-    <row r="46" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X45" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>671</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>676</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>676</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>21305.656652000001</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>21427.754027999999</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>21427.754027999999</v>
+      </c>
+      <c r="AG45">
+        <v>21305.656652000001</v>
+      </c>
+      <c r="AH45">
+        <v>21427.754027999999</v>
+      </c>
+      <c r="AI45">
+        <v>21427.754027999999</v>
+      </c>
+    </row>
+    <row r="46" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L46" s="2">
         <v>98</v>
       </c>
@@ -2462,8 +4149,44 @@
       <c r="T46" s="2">
         <v>22741.749599999999</v>
       </c>
-    </row>
-    <row r="47" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X46" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>94</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>666</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>670</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>670</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>22628.6855</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>22734.2251</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>22741.749599999999</v>
+      </c>
+      <c r="AG46">
+        <v>22628.6855</v>
+      </c>
+      <c r="AH46">
+        <v>22734.2251</v>
+      </c>
+      <c r="AI46">
+        <v>22741.749599999999</v>
+      </c>
+    </row>
+    <row r="47" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L47" s="2">
         <v>84</v>
       </c>
@@ -2491,8 +4214,44 @@
       <c r="T47" s="2">
         <v>21408.996999999999</v>
       </c>
-    </row>
-    <row r="48" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X47" s="2">
+        <v>92</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>88</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>684</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>684</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>22769.832761000001</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>22905.582200000001</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>22930.885439000001</v>
+      </c>
+      <c r="AG47">
+        <v>22769.832761000001</v>
+      </c>
+      <c r="AH47">
+        <v>22905.582200000001</v>
+      </c>
+      <c r="AI47">
+        <v>22930.885439000001</v>
+      </c>
+    </row>
+    <row r="48" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L48" s="2">
         <v>99</v>
       </c>
@@ -2520,8 +4279,44 @@
       <c r="T48" s="2">
         <v>22211.61231</v>
       </c>
-    </row>
-    <row r="49" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X48" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>681</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>685</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>685</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>20693.006622000001</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>20862.913722000001</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>20868.340199999999</v>
+      </c>
+      <c r="AG48">
+        <v>20693.006622000001</v>
+      </c>
+      <c r="AH48">
+        <v>20862.913722000001</v>
+      </c>
+      <c r="AI48">
+        <v>20868.340199999999</v>
+      </c>
+    </row>
+    <row r="49" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L49" s="2">
         <v>85</v>
       </c>
@@ -2549,8 +4344,44 @@
       <c r="T49" s="2">
         <v>23652.327529999999</v>
       </c>
-    </row>
-    <row r="50" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X49" s="2">
+        <v>94</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>94</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>94</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>696</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>696</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>696</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>22210.5628</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>22211.612313000001</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>22211.612313000001</v>
+      </c>
+      <c r="AG49">
+        <v>22210.5628</v>
+      </c>
+      <c r="AH49">
+        <v>22211.612313000001</v>
+      </c>
+      <c r="AI49">
+        <v>22211.612313000001</v>
+      </c>
+    </row>
+    <row r="50" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L50" s="2">
         <v>93</v>
       </c>
@@ -2578,8 +4409,44 @@
       <c r="T50" s="2">
         <v>22400.461220000001</v>
       </c>
-    </row>
-    <row r="51" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X50" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>96</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>683</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>23281.939299999998</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>23421.135200000001</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>23484.729426999998</v>
+      </c>
+      <c r="AG50">
+        <v>23281.939299999998</v>
+      </c>
+      <c r="AH50">
+        <v>23421.135200000001</v>
+      </c>
+      <c r="AI50">
+        <v>23484.729426999998</v>
+      </c>
+    </row>
+    <row r="51" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L51" s="2">
         <v>78</v>
       </c>
@@ -2607,8 +4474,44 @@
       <c r="T51" s="2">
         <v>21720.861499999999</v>
       </c>
-    </row>
-    <row r="52" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X51" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>96</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>94</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>698</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>698</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>698</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>21350.825169</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>21363.037151</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>21363.037151</v>
+      </c>
+      <c r="AG51">
+        <v>21350.825169</v>
+      </c>
+      <c r="AH51">
+        <v>21363.037151</v>
+      </c>
+      <c r="AI51">
+        <v>21363.037151</v>
+      </c>
+    </row>
+    <row r="52" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L52" s="2">
         <v>75</v>
       </c>
@@ -2636,8 +4539,44 @@
       <c r="T52" s="2">
         <v>21955.749800000001</v>
       </c>
-    </row>
-    <row r="53" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X52" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>683</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>22231.902900000001</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>22231.902900000001</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>22264.602113000001</v>
+      </c>
+      <c r="AG52">
+        <v>22231.902900000001</v>
+      </c>
+      <c r="AH52">
+        <v>22231.902900000001</v>
+      </c>
+      <c r="AI52">
+        <v>22264.602113000001</v>
+      </c>
+    </row>
+    <row r="53" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L53" s="2">
         <v>81</v>
       </c>
@@ -2665,8 +4604,44 @@
       <c r="T53" s="2">
         <v>22632.795050000001</v>
       </c>
-    </row>
-    <row r="54" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X53" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>91</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>679</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>683</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>22628.362099999998</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>22628.362099999998</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>22628.362099999998</v>
+      </c>
+      <c r="AG53">
+        <v>22628.362099999998</v>
+      </c>
+      <c r="AH53">
+        <v>22628.362099999998</v>
+      </c>
+      <c r="AI53">
+        <v>22628.362099999998</v>
+      </c>
+    </row>
+    <row r="54" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L54" s="2">
         <v>92</v>
       </c>
@@ -2694,8 +4669,44 @@
       <c r="T54" s="2">
         <v>21831.86361</v>
       </c>
-    </row>
-    <row r="55" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X54" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>91</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>673</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>677</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>677</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>22740.093904000001</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>22811.586144000001</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>22811.586144000001</v>
+      </c>
+      <c r="AG54">
+        <v>22740.093904000001</v>
+      </c>
+      <c r="AH54">
+        <v>22811.586144000001</v>
+      </c>
+      <c r="AI54">
+        <v>22811.586144000001</v>
+      </c>
+    </row>
+    <row r="55" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L55" s="2">
         <v>70</v>
       </c>
@@ -2723,8 +4734,44 @@
       <c r="T55" s="2">
         <v>22417.0785</v>
       </c>
-    </row>
-    <row r="56" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X55" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>86</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>685</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>685</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>22203.071324</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>22548.394432000001</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>22548.394432000001</v>
+      </c>
+      <c r="AG55">
+        <v>22203.071324</v>
+      </c>
+      <c r="AH55">
+        <v>22548.394432000001</v>
+      </c>
+      <c r="AI55">
+        <v>22548.394432000001</v>
+      </c>
+    </row>
+    <row r="56" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L56" s="2">
         <v>101</v>
       </c>
@@ -2752,8 +4799,44 @@
       <c r="T56" s="2">
         <v>23116.250100000001</v>
       </c>
-    </row>
-    <row r="57" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X56" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>684</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>684</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>21909.030719999999</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>22068.448899999999</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>22068.448899999999</v>
+      </c>
+      <c r="AG56">
+        <v>21909.030719999999</v>
+      </c>
+      <c r="AH56">
+        <v>22068.448899999999</v>
+      </c>
+      <c r="AI56">
+        <v>22068.448899999999</v>
+      </c>
+    </row>
+    <row r="57" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L57" s="2">
         <v>94</v>
       </c>
@@ -2781,8 +4864,44 @@
       <c r="T57" s="2">
         <v>22084.78112</v>
       </c>
-    </row>
-    <row r="58" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X57" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>688</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>688</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>688</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>22226.703699999998</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>22290.810099999999</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>22290.810099999999</v>
+      </c>
+      <c r="AG57">
+        <v>22226.703699999998</v>
+      </c>
+      <c r="AH57">
+        <v>22290.810099999999</v>
+      </c>
+      <c r="AI57">
+        <v>22290.810099999999</v>
+      </c>
+    </row>
+    <row r="58" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L58" s="2">
         <v>90</v>
       </c>
@@ -2810,8 +4929,44 @@
       <c r="T58" s="2">
         <v>22870.63553</v>
       </c>
-    </row>
-    <row r="59" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X58" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>680</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>22430.26021</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>22642.509807999999</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>22642.509807999999</v>
+      </c>
+      <c r="AG58">
+        <v>22430.26021</v>
+      </c>
+      <c r="AH58">
+        <v>22642.509807999999</v>
+      </c>
+      <c r="AI58">
+        <v>22642.509807999999</v>
+      </c>
+    </row>
+    <row r="59" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L59" s="2">
         <v>84</v>
       </c>
@@ -2839,8 +4994,44 @@
       <c r="T59" s="2">
         <v>20868.340199999999</v>
       </c>
-    </row>
-    <row r="60" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X59" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>668</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>673</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>673</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>21519.765503999999</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>21608.3495</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>21617.218437</v>
+      </c>
+      <c r="AG59">
+        <v>21519.765503999999</v>
+      </c>
+      <c r="AH59">
+        <v>21608.3495</v>
+      </c>
+      <c r="AI59">
+        <v>21617.218437</v>
+      </c>
+    </row>
+    <row r="60" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L60" s="2">
         <v>79</v>
       </c>
@@ -2868,8 +5059,44 @@
       <c r="T60" s="2">
         <v>22055.5013</v>
       </c>
-    </row>
-    <row r="61" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X60" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>679</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>22701.9653</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>22701.9653</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>22701.9653</v>
+      </c>
+      <c r="AG60">
+        <v>22701.9653</v>
+      </c>
+      <c r="AH60">
+        <v>22701.9653</v>
+      </c>
+      <c r="AI60">
+        <v>22701.9653</v>
+      </c>
+    </row>
+    <row r="61" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L61" s="2">
         <v>86</v>
       </c>
@@ -2897,8 +5124,44 @@
       <c r="T61" s="2">
         <v>21617.218440000001</v>
       </c>
-    </row>
-    <row r="62" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X61" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>685</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>685</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>21549.656319000002</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>21675.232145999998</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>21675.232229000001</v>
+      </c>
+      <c r="AG61">
+        <v>21549.656319000002</v>
+      </c>
+      <c r="AH61">
+        <v>21675.232145999998</v>
+      </c>
+      <c r="AI61">
+        <v>21675.232229000001</v>
+      </c>
+    </row>
+    <row r="62" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L62" s="2">
         <v>94</v>
       </c>
@@ -2926,8 +5189,44 @@
       <c r="T62" s="2">
         <v>22138.132000000001</v>
       </c>
-    </row>
-    <row r="63" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X62" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>692</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>692</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>692</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>22713.048601999999</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>22730.7916</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>22730.7916</v>
+      </c>
+      <c r="AG62">
+        <v>22713.048601999999</v>
+      </c>
+      <c r="AH62">
+        <v>22730.7916</v>
+      </c>
+      <c r="AI62">
+        <v>22730.7916</v>
+      </c>
+    </row>
+    <row r="63" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L63" s="2">
         <v>87</v>
       </c>
@@ -2955,8 +5254,44 @@
       <c r="T63" s="2">
         <v>21814.523000000001</v>
       </c>
-    </row>
-    <row r="64" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X63" s="2">
+        <v>96</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>88</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>686</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>687</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>687</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>22967.345536000001</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>23006.401000000002</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>23006.401000000002</v>
+      </c>
+      <c r="AG63">
+        <v>22967.345536000001</v>
+      </c>
+      <c r="AH63">
+        <v>23006.401000000002</v>
+      </c>
+      <c r="AI63">
+        <v>23006.401000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L64" s="2">
         <v>79</v>
       </c>
@@ -2984,8 +5319,44 @@
       <c r="T64" s="2">
         <v>21427.75403</v>
       </c>
-    </row>
-    <row r="65" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X64" s="2">
+        <v>92</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>86</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>687</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>687</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>687</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>21727.477533000001</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>21812.484899999999</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>21852.014299999999</v>
+      </c>
+      <c r="AG64">
+        <v>21739.026453999999</v>
+      </c>
+      <c r="AH64">
+        <v>21812.484899999999</v>
+      </c>
+      <c r="AI64">
+        <v>21852.014299999999</v>
+      </c>
+    </row>
+    <row r="65" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L65" s="2">
         <v>103</v>
       </c>
@@ -3013,8 +5384,44 @@
       <c r="T65" s="2">
         <v>22850.381440000001</v>
       </c>
-    </row>
-    <row r="66" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X65" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>688</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>688</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>688</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>21390.035603</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>21489.639942000002</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>21489.639942000002</v>
+      </c>
+      <c r="AG65">
+        <v>21390.035603</v>
+      </c>
+      <c r="AH65">
+        <v>21489.639942000002</v>
+      </c>
+      <c r="AI65">
+        <v>21489.639942000002</v>
+      </c>
+    </row>
+    <row r="66" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L66" s="2">
         <v>92</v>
       </c>
@@ -3042,8 +5449,44 @@
       <c r="T66" s="2">
         <v>22542.176599999999</v>
       </c>
-    </row>
-    <row r="67" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X66" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>690</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>692</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>692</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>21862.5344</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>21922.039131000001</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>21955.749800000001</v>
+      </c>
+      <c r="AG66">
+        <v>21862.5344</v>
+      </c>
+      <c r="AH66">
+        <v>21922.039131000001</v>
+      </c>
+      <c r="AI66">
+        <v>21955.749800000001</v>
+      </c>
+    </row>
+    <row r="67" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L67" s="2">
         <v>84</v>
       </c>
@@ -3071,8 +5514,44 @@
       <c r="T67" s="2">
         <v>22891.948</v>
       </c>
-    </row>
-    <row r="68" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X67" s="2">
+        <v>88</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>676</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>679</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>679</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>23216.102748000001</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>23298.205015</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>23298.205015</v>
+      </c>
+      <c r="AG67">
+        <v>23216.102748000001</v>
+      </c>
+      <c r="AH67">
+        <v>23298.205015</v>
+      </c>
+      <c r="AI67">
+        <v>23298.205015</v>
+      </c>
+    </row>
+    <row r="68" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L68" s="2">
         <v>79</v>
       </c>
@@ -3100,8 +5579,44 @@
       <c r="T68" s="2">
         <v>22444.769550000001</v>
       </c>
-    </row>
-    <row r="69" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X68" s="2">
+        <v>94</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>686</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>687</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>687</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>21807.5844</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>21873.883099999999</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>21886.384408000002</v>
+      </c>
+      <c r="AG68">
+        <v>21807.5844</v>
+      </c>
+      <c r="AH68">
+        <v>21873.883099999999</v>
+      </c>
+      <c r="AI68">
+        <v>21886.384408000002</v>
+      </c>
+    </row>
+    <row r="69" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L69" s="2">
         <v>92</v>
       </c>
@@ -3129,8 +5644,44 @@
       <c r="T69" s="2">
         <v>22411.372299999999</v>
       </c>
-    </row>
-    <row r="70" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X69" s="2">
+        <v>86</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>695</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>695</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>695</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>22825.0923</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>22907.852879999999</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>22907.852879999999</v>
+      </c>
+      <c r="AG69">
+        <v>22825.0923</v>
+      </c>
+      <c r="AH69">
+        <v>22907.852879999999</v>
+      </c>
+      <c r="AI69">
+        <v>22907.852879999999</v>
+      </c>
+    </row>
+    <row r="70" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L70" s="2">
         <v>80</v>
       </c>
@@ -3158,8 +5709,44 @@
       <c r="T70" s="2">
         <v>22615.486720000001</v>
       </c>
-    </row>
-    <row r="71" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X70" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>95</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>678</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>21489.591499999999</v>
+      </c>
+      <c r="AE70" s="2">
+        <v>21508.8802</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>21538.455699999999</v>
+      </c>
+      <c r="AG70">
+        <v>21489.591499999999</v>
+      </c>
+      <c r="AH70">
+        <v>21508.8802</v>
+      </c>
+      <c r="AI70">
+        <v>21538.455699999999</v>
+      </c>
+    </row>
+    <row r="71" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L71" s="2">
         <v>106</v>
       </c>
@@ -3187,8 +5774,44 @@
       <c r="T71" s="2">
         <v>22254.17612</v>
       </c>
-    </row>
-    <row r="72" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X71" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>674</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>677</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>677</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>22127.688399999999</v>
+      </c>
+      <c r="AE71" s="2">
+        <v>22337.106100000001</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>22400.461219000001</v>
+      </c>
+      <c r="AG71">
+        <v>22127.688399999999</v>
+      </c>
+      <c r="AH71">
+        <v>22337.106100000001</v>
+      </c>
+      <c r="AI71">
+        <v>22400.461219000001</v>
+      </c>
+    </row>
+    <row r="72" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L72" s="2">
         <v>107</v>
       </c>
@@ -3216,8 +5839,44 @@
       <c r="T72" s="2">
         <v>22616.219499999999</v>
       </c>
-    </row>
-    <row r="73" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X72" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>93</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>693</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>693</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>693</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>22612.820299999999</v>
+      </c>
+      <c r="AE72" s="2">
+        <v>22697.548102000001</v>
+      </c>
+      <c r="AF72" s="2">
+        <v>22697.548102000001</v>
+      </c>
+      <c r="AG72">
+        <v>22612.820299999999</v>
+      </c>
+      <c r="AH72">
+        <v>22697.548102000001</v>
+      </c>
+      <c r="AI72">
+        <v>22697.548102000001</v>
+      </c>
+    </row>
+    <row r="73" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L73" s="2">
         <v>91</v>
       </c>
@@ -3245,8 +5904,44 @@
       <c r="T73" s="2">
         <v>23173.967949999998</v>
       </c>
-    </row>
-    <row r="74" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X73" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>677</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>21632.890100000001</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>21712.421301999999</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>21720.861499999999</v>
+      </c>
+      <c r="AG73">
+        <v>21632.890100000001</v>
+      </c>
+      <c r="AH73">
+        <v>21712.421301999999</v>
+      </c>
+      <c r="AI73">
+        <v>21720.861499999999</v>
+      </c>
+    </row>
+    <row r="74" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L74" s="2">
         <v>105</v>
       </c>
@@ -3274,8 +5969,44 @@
       <c r="T74" s="2">
         <v>21538.455699999999</v>
       </c>
-    </row>
-    <row r="75" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X74" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>98</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>98</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>686</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>686</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>686</v>
+      </c>
+      <c r="AD74" s="2">
+        <v>22214.317357</v>
+      </c>
+      <c r="AE74" s="2">
+        <v>22254.176116999999</v>
+      </c>
+      <c r="AF74" s="2">
+        <v>22254.176116999999</v>
+      </c>
+      <c r="AG74">
+        <v>22214.317357</v>
+      </c>
+      <c r="AH74">
+        <v>22254.176116999999</v>
+      </c>
+      <c r="AI74">
+        <v>22254.176116999999</v>
+      </c>
+    </row>
+    <row r="75" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L75" s="2">
         <v>97</v>
       </c>
@@ -3303,8 +6034,44 @@
       <c r="T75" s="2">
         <v>21286.270110000001</v>
       </c>
-    </row>
-    <row r="76" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X75" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>687</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>687</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>21358.981800000001</v>
+      </c>
+      <c r="AE75" s="2">
+        <v>21358.981800000001</v>
+      </c>
+      <c r="AF75" s="2">
+        <v>21408.997003</v>
+      </c>
+      <c r="AG75">
+        <v>21358.981800000001</v>
+      </c>
+      <c r="AH75">
+        <v>21358.981800000001</v>
+      </c>
+      <c r="AI75">
+        <v>21408.997003</v>
+      </c>
+    </row>
+    <row r="76" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L76" s="2">
         <v>65</v>
       </c>
@@ -3332,8 +6099,44 @@
       <c r="T76" s="2">
         <v>21432.709599999998</v>
       </c>
-    </row>
-    <row r="77" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X76" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>678</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>22794.021829000001</v>
+      </c>
+      <c r="AE76" s="2">
+        <v>22936.116600000001</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>22936.116600000001</v>
+      </c>
+      <c r="AG76">
+        <v>22794.021829000001</v>
+      </c>
+      <c r="AH76">
+        <v>22936.116600000001</v>
+      </c>
+      <c r="AI76">
+        <v>22936.116600000001</v>
+      </c>
+    </row>
+    <row r="77" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L77" s="2">
         <v>100</v>
       </c>
@@ -3361,8 +6164,44 @@
       <c r="T77" s="2">
         <v>22974.0998</v>
       </c>
-    </row>
-    <row r="78" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X77" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>696</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>696</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>696</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>21715.465571000001</v>
+      </c>
+      <c r="AE77" s="2">
+        <v>21940.993999999999</v>
+      </c>
+      <c r="AF77" s="2">
+        <v>21940.993999999999</v>
+      </c>
+      <c r="AG77">
+        <v>21715.465571000001</v>
+      </c>
+      <c r="AH77">
+        <v>21940.993999999999</v>
+      </c>
+      <c r="AI77">
+        <v>21940.993999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L78" s="2">
         <v>77</v>
       </c>
@@ -3390,8 +6229,44 @@
       <c r="T78" s="2">
         <v>21873.448049999999</v>
       </c>
-    </row>
-    <row r="79" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X78" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>694</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>694</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>694</v>
+      </c>
+      <c r="AD78" s="2">
+        <v>22480.664700000001</v>
+      </c>
+      <c r="AE78" s="2">
+        <v>22480.664700000001</v>
+      </c>
+      <c r="AF78" s="2">
+        <v>22480.664700000001</v>
+      </c>
+      <c r="AG78">
+        <v>22480.664700000001</v>
+      </c>
+      <c r="AH78">
+        <v>22480.664700000001</v>
+      </c>
+      <c r="AI78">
+        <v>22480.664700000001</v>
+      </c>
+    </row>
+    <row r="79" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L79" s="2">
         <v>75</v>
       </c>
@@ -3419,8 +6294,44 @@
       <c r="T79" s="2">
         <v>23008.016</v>
       </c>
-    </row>
-    <row r="80" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X79" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>677</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>679</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>679</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>22493.253005999999</v>
+      </c>
+      <c r="AE79" s="2">
+        <v>22565.246999999999</v>
+      </c>
+      <c r="AF79" s="2">
+        <v>22632.795047</v>
+      </c>
+      <c r="AG79">
+        <v>22493.253005999999</v>
+      </c>
+      <c r="AH79">
+        <v>22565.246999999999</v>
+      </c>
+      <c r="AI79">
+        <v>22632.795047</v>
+      </c>
+    </row>
+    <row r="80" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L80" s="2">
         <v>86</v>
       </c>
@@ -3448,8 +6359,44 @@
       <c r="T80" s="2">
         <v>22192.657800000001</v>
       </c>
-    </row>
-    <row r="81" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X80" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>682</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>682</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>682</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>22410.996723</v>
+      </c>
+      <c r="AE80" s="2">
+        <v>22452.816500000001</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>22452.816500000001</v>
+      </c>
+      <c r="AG80">
+        <v>22410.996723</v>
+      </c>
+      <c r="AH80">
+        <v>22452.816500000001</v>
+      </c>
+      <c r="AI80">
+        <v>22452.816500000001</v>
+      </c>
+    </row>
+    <row r="81" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L81" s="2">
         <v>116</v>
       </c>
@@ -3477,8 +6424,44 @@
       <c r="T81" s="2">
         <v>21623.456320000001</v>
       </c>
-    </row>
-    <row r="82" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X81" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>676</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>679</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>679</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>22143.805439</v>
+      </c>
+      <c r="AE81" s="2">
+        <v>22212.137999999999</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>22254.320787000001</v>
+      </c>
+      <c r="AG81">
+        <v>22143.805439</v>
+      </c>
+      <c r="AH81">
+        <v>22212.137999999999</v>
+      </c>
+      <c r="AI81">
+        <v>22254.320787000001</v>
+      </c>
+    </row>
+    <row r="82" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L82" s="2">
         <v>73</v>
       </c>
@@ -3506,8 +6489,44 @@
       <c r="T82" s="2">
         <v>22306.2189</v>
       </c>
-    </row>
-    <row r="83" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X82" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>93</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>680</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>682</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>682</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>22089.76584</v>
+      </c>
+      <c r="AE82" s="2">
+        <v>22138.132000000001</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>22138.132000000001</v>
+      </c>
+      <c r="AG82">
+        <v>22089.76584</v>
+      </c>
+      <c r="AH82">
+        <v>22138.132000000001</v>
+      </c>
+      <c r="AI82">
+        <v>22138.132000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L83" s="2">
         <v>73</v>
       </c>
@@ -3535,8 +6554,44 @@
       <c r="T83" s="2">
         <v>21880.344969999998</v>
       </c>
-    </row>
-    <row r="84" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X83" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>86</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>687</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>687</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>687</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>22103.7202</v>
+      </c>
+      <c r="AE83" s="2">
+        <v>22192.657800000001</v>
+      </c>
+      <c r="AF83" s="2">
+        <v>22192.657800000001</v>
+      </c>
+      <c r="AG83">
+        <v>22103.7202</v>
+      </c>
+      <c r="AH83">
+        <v>22192.657800000001</v>
+      </c>
+      <c r="AI83">
+        <v>22192.657800000001</v>
+      </c>
+    </row>
+    <row r="84" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L84" s="2">
         <v>95</v>
       </c>
@@ -3564,8 +6619,44 @@
       <c r="T84" s="2">
         <v>22110.4506</v>
       </c>
-    </row>
-    <row r="85" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X84" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>680</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>684</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>684</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>22335.176899999999</v>
+      </c>
+      <c r="AE84" s="2">
+        <v>22456.980523999999</v>
+      </c>
+      <c r="AF84" s="2">
+        <v>22456.980523999999</v>
+      </c>
+      <c r="AG84">
+        <v>22335.176899999999</v>
+      </c>
+      <c r="AH84">
+        <v>22456.980523999999</v>
+      </c>
+      <c r="AI84">
+        <v>22456.980523999999</v>
+      </c>
+    </row>
+    <row r="85" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L85" s="2">
         <v>95</v>
       </c>
@@ -3593,8 +6684,44 @@
       <c r="T85" s="2">
         <v>22019.5501</v>
       </c>
-    </row>
-    <row r="86" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X85" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>88</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>690</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>690</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>690</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>23002.057100000002</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>23125.071412000001</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>23173.967949000002</v>
+      </c>
+      <c r="AG85">
+        <v>23002.057100000002</v>
+      </c>
+      <c r="AH85">
+        <v>23125.071412000001</v>
+      </c>
+      <c r="AI85">
+        <v>23173.967949000002</v>
+      </c>
+    </row>
+    <row r="86" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L86" s="2">
         <v>88</v>
       </c>
@@ -3622,8 +6749,44 @@
       <c r="T86" s="2">
         <v>22548.39443</v>
       </c>
-    </row>
-    <row r="87" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X86" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>95</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>688</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>689</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>689</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>21622.583523000001</v>
+      </c>
+      <c r="AE86" s="2">
+        <v>21622.583523000001</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>21627.307734000002</v>
+      </c>
+      <c r="AG86">
+        <v>21622.583523000001</v>
+      </c>
+      <c r="AH86">
+        <v>21622.583523000001</v>
+      </c>
+      <c r="AI86">
+        <v>21627.307734000002</v>
+      </c>
+    </row>
+    <row r="87" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L87" s="2">
         <v>98</v>
       </c>
@@ -3651,8 +6814,44 @@
       <c r="T87" s="2">
         <v>22642.09072</v>
       </c>
-    </row>
-    <row r="88" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X87" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>693</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>693</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>693</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>22306.2189</v>
+      </c>
+      <c r="AE87" s="2">
+        <v>22306.2189</v>
+      </c>
+      <c r="AF87" s="2">
+        <v>22306.2189</v>
+      </c>
+      <c r="AG87">
+        <v>22306.2189</v>
+      </c>
+      <c r="AH87">
+        <v>22306.2189</v>
+      </c>
+      <c r="AI87">
+        <v>22306.2189</v>
+      </c>
+    </row>
+    <row r="88" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L88" s="2">
         <v>89</v>
       </c>
@@ -3680,8 +6879,44 @@
       <c r="T88" s="2">
         <v>21711.409100000001</v>
       </c>
-    </row>
-    <row r="89" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X88" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>92</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>675</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>676</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>676</v>
+      </c>
+      <c r="AD88" s="2">
+        <v>21465.787700000001</v>
+      </c>
+      <c r="AE88" s="2">
+        <v>21588.621032999999</v>
+      </c>
+      <c r="AF88" s="2">
+        <v>21588.621032999999</v>
+      </c>
+      <c r="AG88">
+        <v>21465.787700000001</v>
+      </c>
+      <c r="AH88">
+        <v>21588.621032999999</v>
+      </c>
+      <c r="AI88">
+        <v>21588.621032999999</v>
+      </c>
+    </row>
+    <row r="89" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L89" s="2">
         <v>70</v>
       </c>
@@ -3709,8 +6944,44 @@
       <c r="T89" s="2">
         <v>22074.482</v>
       </c>
-    </row>
-    <row r="90" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X89" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>698</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>698</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>698</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>22531.436614999999</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>22790.473600000001</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>22790.473600000001</v>
+      </c>
+      <c r="AG89">
+        <v>22531.436614999999</v>
+      </c>
+      <c r="AH89">
+        <v>22790.473600000001</v>
+      </c>
+      <c r="AI89">
+        <v>22790.473600000001</v>
+      </c>
+    </row>
+    <row r="90" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L90" s="2">
         <v>87</v>
       </c>
@@ -3738,8 +7009,44 @@
       <c r="T90" s="2">
         <v>21489.639940000001</v>
       </c>
-    </row>
-    <row r="91" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X90" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>98</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>98</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>680</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>682</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>682</v>
+      </c>
+      <c r="AD90" s="2">
+        <v>23085.462248</v>
+      </c>
+      <c r="AE90" s="2">
+        <v>23116.250100000001</v>
+      </c>
+      <c r="AF90" s="2">
+        <v>23116.250100000001</v>
+      </c>
+      <c r="AG90">
+        <v>23085.462248</v>
+      </c>
+      <c r="AH90">
+        <v>23116.250100000001</v>
+      </c>
+      <c r="AI90">
+        <v>23116.250100000001</v>
+      </c>
+    </row>
+    <row r="91" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L91" s="2">
         <v>104</v>
       </c>
@@ -3767,8 +7074,44 @@
       <c r="T91" s="2">
         <v>22642.50981</v>
       </c>
-    </row>
-    <row r="92" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X91" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>685</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>686</v>
+      </c>
+      <c r="AC91" s="2">
+        <v>686</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>21656.186120999999</v>
+      </c>
+      <c r="AE91" s="2">
+        <v>21731.046806999999</v>
+      </c>
+      <c r="AF91" s="2">
+        <v>21731.046806999999</v>
+      </c>
+      <c r="AG91">
+        <v>21656.186120999999</v>
+      </c>
+      <c r="AH91">
+        <v>21731.046806999999</v>
+      </c>
+      <c r="AI91">
+        <v>21731.046806999999</v>
+      </c>
+    </row>
+    <row r="92" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L92" s="2">
         <v>104</v>
       </c>
@@ -3796,8 +7139,44 @@
       <c r="T92" s="2">
         <v>21731.04681</v>
       </c>
-    </row>
-    <row r="93" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X92" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>697</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>697</v>
+      </c>
+      <c r="AC92" s="2">
+        <v>697</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>22063.153542</v>
+      </c>
+      <c r="AE92" s="2">
+        <v>22133.2215</v>
+      </c>
+      <c r="AF92" s="2">
+        <v>22201.960937</v>
+      </c>
+      <c r="AG92">
+        <v>22063.153542</v>
+      </c>
+      <c r="AH92">
+        <v>22133.2215</v>
+      </c>
+      <c r="AI92">
+        <v>22201.960937</v>
+      </c>
+    </row>
+    <row r="93" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L93" s="2">
         <v>115</v>
       </c>
@@ -3825,8 +7204,44 @@
       <c r="T93" s="2">
         <v>22821.559420000001</v>
       </c>
-    </row>
-    <row r="94" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X93" s="2">
+        <v>98</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>95</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>685</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>687</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>687</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>22591.232840000001</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>22634.394618999999</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>22642.090723000001</v>
+      </c>
+      <c r="AG93">
+        <v>22591.232840000001</v>
+      </c>
+      <c r="AH93">
+        <v>22634.394618999999</v>
+      </c>
+      <c r="AI93">
+        <v>22642.090723000001</v>
+      </c>
+    </row>
+    <row r="94" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L94" s="2">
         <v>94</v>
       </c>
@@ -3854,8 +7269,44 @@
       <c r="T94" s="2">
         <v>22768.458920000001</v>
       </c>
-    </row>
-    <row r="95" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X94" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>688</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>690</v>
+      </c>
+      <c r="AC94" s="2">
+        <v>690</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>21280.741624999999</v>
+      </c>
+      <c r="AE94" s="2">
+        <v>21292.071445000001</v>
+      </c>
+      <c r="AF94" s="2">
+        <v>21364.156245999999</v>
+      </c>
+      <c r="AG94">
+        <v>21280.741624999999</v>
+      </c>
+      <c r="AH94">
+        <v>21292.071445000001</v>
+      </c>
+      <c r="AI94">
+        <v>21364.156245999999</v>
+      </c>
+    </row>
+    <row r="95" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L95" s="2">
         <v>77</v>
       </c>
@@ -3883,8 +7334,44 @@
       <c r="T95" s="2">
         <v>22730.7916</v>
       </c>
-    </row>
-    <row r="96" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X95" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>674</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>676</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>676</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>23533.950237000001</v>
+      </c>
+      <c r="AE95" s="2">
+        <v>23652.327527000001</v>
+      </c>
+      <c r="AF95" s="2">
+        <v>23652.327527000001</v>
+      </c>
+      <c r="AG95">
+        <v>23533.950237000001</v>
+      </c>
+      <c r="AH95">
+        <v>23652.327527000001</v>
+      </c>
+      <c r="AI95">
+        <v>23652.327527000001</v>
+      </c>
+    </row>
+    <row r="96" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L96" s="2">
         <v>95</v>
       </c>
@@ -3912,8 +7399,44 @@
       <c r="T96" s="2">
         <v>22628.362099999998</v>
       </c>
-    </row>
-    <row r="97" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X96" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>105</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>684</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>684</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>21559.277699999999</v>
+      </c>
+      <c r="AE96" s="2">
+        <v>21623.456321999998</v>
+      </c>
+      <c r="AF96" s="2">
+        <v>21623.456321999998</v>
+      </c>
+      <c r="AG96">
+        <v>21559.277699999999</v>
+      </c>
+      <c r="AH96">
+        <v>21623.456321999998</v>
+      </c>
+      <c r="AI96">
+        <v>21623.456321999998</v>
+      </c>
+    </row>
+    <row r="97" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L97" s="2">
         <v>97</v>
       </c>
@@ -3941,8 +7464,44 @@
       <c r="T97" s="2">
         <v>22811.586139999999</v>
       </c>
-    </row>
-    <row r="98" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X97" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y97" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>672</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>677</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>677</v>
+      </c>
+      <c r="AD97" s="2">
+        <v>22815.677141</v>
+      </c>
+      <c r="AE97" s="2">
+        <v>22847.58914</v>
+      </c>
+      <c r="AF97" s="2">
+        <v>22847.58914</v>
+      </c>
+      <c r="AG97">
+        <v>22815.677141</v>
+      </c>
+      <c r="AH97">
+        <v>22847.58914</v>
+      </c>
+      <c r="AI97">
+        <v>22847.58914</v>
+      </c>
+    </row>
+    <row r="98" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L98" s="2">
         <v>88</v>
       </c>
@@ -3970,8 +7529,44 @@
       <c r="T98" s="2">
         <v>21852.014299999999</v>
       </c>
-    </row>
-    <row r="99" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X98" s="2">
+        <v>94</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>676</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>681</v>
+      </c>
+      <c r="AC98" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD98" s="2">
+        <v>22679.389412</v>
+      </c>
+      <c r="AE98" s="2">
+        <v>22846.224749000001</v>
+      </c>
+      <c r="AF98" s="2">
+        <v>22856.396100000002</v>
+      </c>
+      <c r="AG98">
+        <v>22679.389412</v>
+      </c>
+      <c r="AH98">
+        <v>22846.224749000001</v>
+      </c>
+      <c r="AI98">
+        <v>22856.396100000002</v>
+      </c>
+    </row>
+    <row r="99" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L99" s="2">
         <v>92</v>
       </c>
@@ -3999,8 +7594,44 @@
       <c r="T99" s="2">
         <v>22790.473600000001</v>
       </c>
-    </row>
-    <row r="100" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X99" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y99" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>688</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>688</v>
+      </c>
+      <c r="AC99" s="2">
+        <v>688</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>22386.737441000001</v>
+      </c>
+      <c r="AE99" s="2">
+        <v>22411.372299999999</v>
+      </c>
+      <c r="AF99" s="2">
+        <v>22411.372299999999</v>
+      </c>
+      <c r="AG99">
+        <v>22386.737441000001</v>
+      </c>
+      <c r="AH99">
+        <v>22411.372299999999</v>
+      </c>
+      <c r="AI99">
+        <v>22411.372299999999</v>
+      </c>
+    </row>
+    <row r="100" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L100" s="2">
         <v>79</v>
       </c>
@@ -4028,8 +7659,44 @@
       <c r="T100" s="2">
         <v>21364.15625</v>
       </c>
-    </row>
-    <row r="101" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X100" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>684</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>685</v>
+      </c>
+      <c r="AC100" s="2">
+        <v>685</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>21880.345000000001</v>
+      </c>
+      <c r="AE100" s="2">
+        <v>21880.345000000001</v>
+      </c>
+      <c r="AF100" s="2">
+        <v>21880.345000000001</v>
+      </c>
+      <c r="AG100">
+        <v>21880.345000000001</v>
+      </c>
+      <c r="AH100">
+        <v>21880.345000000001</v>
+      </c>
+      <c r="AI100">
+        <v>21880.345000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L101" s="2">
         <v>84</v>
       </c>
@@ -4057,8 +7724,44 @@
       <c r="T101" s="2">
         <v>22677.249339999998</v>
       </c>
-    </row>
-    <row r="102" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="X101" s="2">
+        <v>96</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>95</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>94</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>683</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>683</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>22004.569735000001</v>
+      </c>
+      <c r="AE101" s="2">
+        <v>22198.316811000001</v>
+      </c>
+      <c r="AF101" s="2">
+        <v>22202.403999999999</v>
+      </c>
+      <c r="AG101">
+        <v>22004.569735000001</v>
+      </c>
+      <c r="AH101">
+        <v>22198.316811000001</v>
+      </c>
+      <c r="AI101">
+        <v>22202.403999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L102" s="2">
         <v>77</v>
       </c>
@@ -4086,18 +7789,252 @@
       <c r="T102" s="2">
         <v>22290.810099999999</v>
       </c>
+      <c r="X102" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>102</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>679</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>683</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>683</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>22397.486646000001</v>
+      </c>
+      <c r="AE102" s="2">
+        <v>22533.530900000002</v>
+      </c>
+      <c r="AF102" s="2">
+        <v>22533.530900000002</v>
+      </c>
+      <c r="AG102">
+        <v>22397.486646000001</v>
+      </c>
+      <c r="AH102">
+        <v>22533.530900000002</v>
+      </c>
+      <c r="AI102">
+        <v>22533.530900000002</v>
+      </c>
+    </row>
+    <row r="103" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L103" s="7">
+        <f t="shared" ref="L103" si="0">AVERAGE(L3:L102)</f>
+        <v>90.47</v>
+      </c>
+      <c r="M103" s="7">
+        <f t="shared" ref="M103" si="1">AVERAGE(M3:M102)</f>
+        <v>86.77</v>
+      </c>
+      <c r="N103" s="7">
+        <f t="shared" ref="N103" si="2">AVERAGE(N3:N102)</f>
+        <v>86.48</v>
+      </c>
+      <c r="O103" s="7">
+        <f t="shared" ref="O103" si="3">AVERAGE(O3:O102)</f>
+        <v>684.09</v>
+      </c>
+      <c r="P103" s="7">
+        <f t="shared" ref="P103" si="4">AVERAGE(P3:P102)</f>
+        <v>684.13</v>
+      </c>
+      <c r="Q103" s="7">
+        <f t="shared" ref="Q103" si="5">AVERAGE(Q3:Q102)</f>
+        <v>684.14</v>
+      </c>
+      <c r="R103" s="7">
+        <f t="shared" ref="R103" si="6">AVERAGE(R3:R102)</f>
+        <v>22159.927655099997</v>
+      </c>
+      <c r="S103" s="7">
+        <f t="shared" ref="S103" si="7">AVERAGE(S3:S102)</f>
+        <v>22253.782726699999</v>
+      </c>
+      <c r="T103" s="7">
+        <f t="shared" ref="T103" si="8">AVERAGE(T3:T102)</f>
+        <v>22272.461222799993</v>
+      </c>
+      <c r="X103" s="7">
+        <f t="shared" ref="X103:AF103" si="9">AVERAGE(X3:X102)</f>
+        <v>96.19</v>
+      </c>
+      <c r="Y103" s="7">
+        <f t="shared" si="9"/>
+        <v>86.7</v>
+      </c>
+      <c r="Z103" s="7">
+        <f t="shared" si="9"/>
+        <v>86.47</v>
+      </c>
+      <c r="AA103" s="7">
+        <f t="shared" si="9"/>
+        <v>682.24</v>
+      </c>
+      <c r="AB103" s="7">
+        <f t="shared" si="9"/>
+        <v>684.13</v>
+      </c>
+      <c r="AC103" s="7">
+        <f t="shared" si="9"/>
+        <v>684.13</v>
+      </c>
+      <c r="AD103" s="7">
+        <f t="shared" si="9"/>
+        <v>22167.836623200004</v>
+      </c>
+      <c r="AE103" s="7">
+        <f t="shared" si="9"/>
+        <v>22256.784876959999</v>
+      </c>
+      <c r="AF103" s="7">
+        <f t="shared" si="9"/>
+        <v>22272.546688180002</v>
+      </c>
+      <c r="AG103" s="7">
+        <f>AVERAGE(AG3:AG102)</f>
+        <v>22162.751980848494</v>
+      </c>
+      <c r="AH103" s="7">
+        <f t="shared" ref="AH103:AI103" si="10">AVERAGE(AH3:AH102)</f>
+        <v>22256.784876959999</v>
+      </c>
+      <c r="AI103" s="7">
+        <f t="shared" si="10"/>
+        <v>22272.546688180002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E26">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G26">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I26">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J26">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
